--- a/backend/excel_sheets/extracted_data_1758194625526.xlsx
+++ b/backend/excel_sheets/extracted_data_1758194625526.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,115 +591,232 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>1758194625526</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
           <t>Summary of Product Characteristics</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Awiqli</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>insulin icodec</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>700 units/mL</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Solution for injection in pre-filled pen</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Subcutaneous use</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>700 units/mL solution contained in 1 mL pen, 1050 units/mL solution contained in 1.5 mL pen, 2100 units/mL solution contained in 3 mL pen</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>solution for injection in pre-filled pen (FlexTouch)</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Subcutaneous use only</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Treatment of diabetes mellitus in adults</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Once-weekly subcutaneous administration</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>This medicinal product is a basal insulin for once-weekly subcutaneous administration, dosing need based on patient requirements and may vary from 10-700 units, missed doses need to be administered as soon as possible with instructions varying by patient category, special population adjustments including elderly.</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Hypersensitivity to the active substance or to any of the excipients</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Hypoglycaemia, hypersensitivity reactions, lipodystrophy, and cutaneous amyloidosis</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Risk of hypoglycaemia, administration technique, lipid metabolism, eye disorders, medication errors, lipodystrophy risks, interactions with other medicinal products, pregnancy and lactation warnings, use caution for patients with impaired awareness of hypoglycaemia, dose rotation, device use education</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>Novo Nordisk A/S</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>EU/1/24/1815/001 to EU/1/24/1815/014</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>17 May 2024</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>"Date of Latest Renewal": "Not found",</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>3 years</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>Store in a refrigerator (2 °C - 8 °C), do not freeze, keep the cap on the pen to protect from light</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Pre-filled pen containing 700 units of insulin icodec in 1 mL solution, 1,050 units of insulin icodec in 1.5 mL solution, or 2,100 units of insulin icodec in 3 mL solution</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Prescription only</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>Before first use: store in refrigerator (2°C - 8°C), do not freeze, keep protected from light. After first opening: store below 30°C, may be stored in refrigerator, keep protected from light, use within 12 weeks from first opening date</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Pre-filled pen available in 1mL, 1.5mL, 3mL capacities to deliver up to 2100 units of insulin icodec, sold individually or in multi-packs (2 pens) with different needles (9, 13, 14, 26, 28 units) depending on formulation strength</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Not specified in provided text or format</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>A10AE07</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>Novo Nordisk A/S</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, and sodium hydroxide</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, water for injections</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>awiqli-epar-product-information_en.pdf</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W3" s="2" t="inlineStr">
         <is>
           <t>1758194625526</t>
         </is>
